--- a/data/trans_orig/dukeAFECT-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/dukeAFECT-Provincia-trans_orig.xlsx
@@ -681,7 +681,7 @@
         <v>16.95170254868004</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>18.21455455634582</v>
+        <v>18.21455455634583</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>15.65742314763914</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>15.55802930197495</v>
+        <v>15.55964436637095</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>17.30545464414194</v>
+        <v>17.27122306559626</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>16.89211580428457</v>
+        <v>16.87478697787561</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>18.00479099102165</v>
+        <v>17.99493921883386</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>14.74981618230387</v>
+        <v>14.69015483478267</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>16.40545778335719</v>
+        <v>16.33102548115973</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>16.55035382827656</v>
+        <v>16.5735298691541</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>17.99296238386427</v>
+        <v>17.99735938140311</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>15.32311555307238</v>
+        <v>15.30956401409511</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16.97958325269369</v>
+        <v>16.95509718526467</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16.86484612179564</v>
+        <v>16.81776730192234</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>18.07725716448411</v>
+        <v>18.08378650828308</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.47033877487481</v>
+        <v>16.44777432771849</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>17.95565112444867</v>
+        <v>17.95950356157903</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17.62299218342732</v>
+        <v>17.624552071604</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18.50973138756745</v>
+        <v>18.49809796130368</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>15.71112328638179</v>
+        <v>15.70705407735578</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>17.21916805156365</v>
+        <v>17.22341460740874</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>17.28608606421745</v>
+        <v>17.31617967378555</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>18.39408007586577</v>
+        <v>18.39574025966592</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>16.01210103214072</v>
+        <v>15.95235715413079</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>17.51439417135714</v>
+        <v>17.48648899251422</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17.37798565953446</v>
+        <v>17.37629110966377</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>18.40140038761684</v>
+        <v>18.39786878234381</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>16.53501828880577</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>18.02774998508902</v>
+        <v>18.02774998508901</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>16.86091864421968</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>16.94321124861805</v>
+        <v>16.9508932084</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>17.66314879421404</v>
+        <v>17.65126114478401</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>16.40055845057934</v>
+        <v>16.41092187808535</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>17.81388899117789</v>
+        <v>17.79048125795786</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>16.12013381790355</v>
+        <v>16.13998232606296</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>17.57612083069218</v>
+        <v>17.54351895431846</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>16.31381932487208</v>
+        <v>16.32235998603452</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>17.83270954673889</v>
+        <v>17.81096558733875</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>16.63494967733987</v>
+        <v>16.62155412711713</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>17.68980791836582</v>
+        <v>17.70607372770006</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>16.42029954154631</v>
+        <v>16.41061589401161</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>17.87724172130363</v>
+        <v>17.88113406574103</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>17.52315003773741</v>
+        <v>17.55670269025616</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>18.17223184538173</v>
+        <v>18.16797628500024</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>16.87839742125749</v>
+        <v>16.8658916860681</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>18.28846651763196</v>
+        <v>18.26659017578819</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>16.79025059520494</v>
+        <v>16.79303565512314</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>18.05476091447398</v>
+        <v>18.07604559928656</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>16.75717296583399</v>
+        <v>16.7482169552802</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>18.20445227912164</v>
+        <v>18.19928055092346</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>17.08264995510159</v>
+        <v>17.0759011342116</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>18.04908223501786</v>
+        <v>18.08296991396028</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>16.74495453820439</v>
+        <v>16.74339893625484</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>18.18127023650766</v>
+        <v>18.1776854287461</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>17.33411904045489</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18.17638178439237</v>
+        <v>18.17638178439236</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>18.48270585754396</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>18.08223332649667</v>
+        <v>18.10077177532817</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>18.03886539269847</v>
+        <v>18.06383124150234</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>17.08500416198536</v>
+        <v>17.09144917643046</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>17.83488059074561</v>
+        <v>17.8320005989628</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>18.22932795673319</v>
+        <v>18.18173479332724</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>17.57316004380376</v>
+        <v>17.56480237468834</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>16.86229357978133</v>
+        <v>16.85787347183229</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>17.7120553752971</v>
+        <v>17.73083711151335</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>18.25256444114322</v>
+        <v>18.22194281205843</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>17.85760491345632</v>
+        <v>17.88672737008779</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>17.04009611052029</v>
+        <v>17.04974671279401</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>17.8525611525929</v>
+        <v>17.84301266140904</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>18.61915817095363</v>
+        <v>18.63262025024657</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>18.53801377542534</v>
+        <v>18.55111606474738</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17.59064961719844</v>
+        <v>17.57912336086673</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18.46440952775651</v>
+        <v>18.4518670650172</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>18.71684066836036</v>
+        <v>18.74247909861317</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>18.13601374480392</v>
+        <v>18.09333162670578</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>17.40863706225238</v>
+        <v>17.3976478568994</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>18.19657649710292</v>
+        <v>18.19998728620241</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>18.61129398630941</v>
+        <v>18.62993062452134</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>18.24849157949682</v>
+        <v>18.26916952372051</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17.4027770227285</v>
+        <v>17.3924664087407</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>18.27074387421827</v>
+        <v>18.24494445856031</v>
       </c>
     </row>
     <row r="13">
@@ -1101,7 +1101,7 @@
         <v>18.46332467104688</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>18.63406431084151</v>
+        <v>18.63406431084152</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>17.39966513829635</v>
+        <v>17.40168144323331</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>17.92978548286009</v>
+        <v>17.92247886829582</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>18.27887665624957</v>
+        <v>18.28433480100761</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>18.2068566250253</v>
+        <v>18.18586758315133</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>17.05371831692964</v>
+        <v>17.05024087649429</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>17.44844248954966</v>
+        <v>17.49791545131445</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>17.99124634713723</v>
+        <v>17.98063999579676</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>18.34974196817311</v>
+        <v>18.32566438201112</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>17.3034540873182</v>
+        <v>17.31604011294595</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17.7848606770562</v>
+        <v>17.78922097915145</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>18.2193864861315</v>
+        <v>18.23431055282607</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>18.40169436330913</v>
+        <v>18.4102023306474</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>17.94123589149127</v>
+        <v>17.94497846270962</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>18.47515136996973</v>
+        <v>18.50039068566313</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>18.86624596952633</v>
+        <v>18.85447489257111</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>18.98356199076992</v>
+        <v>18.96699312410516</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>17.63925596681585</v>
+        <v>17.65558347006162</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>18.03939692299926</v>
+        <v>18.06468000030001</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>18.61686548785078</v>
+        <v>18.6095455129645</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>18.8110785683654</v>
+        <v>18.81393572486862</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>17.72125274657812</v>
+        <v>17.73312619486847</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>18.18460328261469</v>
+        <v>18.19033510291453</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>18.65818566826622</v>
+        <v>18.67419325193732</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>18.84540566942857</v>
+        <v>18.82398091122254</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>16.34973337881166</v>
+        <v>16.33486745560064</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>17.61693598383736</v>
+        <v>17.63711575969086</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16.79797285529954</v>
+        <v>16.80213757424356</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15.63061418060967</v>
+        <v>15.63768016151903</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>16.02551172572935</v>
+        <v>16.05407634753508</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>16.92928037112634</v>
+        <v>16.98909690636942</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>17.12974336027013</v>
+        <v>17.12310713382184</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>15.93032949653844</v>
+        <v>15.96906008452486</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>16.35384105681606</v>
+        <v>16.30839543002078</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>17.41265212118274</v>
+        <v>17.41706039110275</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17.08260170823618</v>
+        <v>17.05574417644303</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>15.90035304626111</v>
+        <v>15.8996000370415</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>17.27137558453795</v>
+        <v>17.25487378289512</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>18.36592055533618</v>
+        <v>18.33485482659703</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17.50104715988672</v>
+        <v>17.52067988528678</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>16.28942055391997</v>
+        <v>16.30813084914356</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>16.88472762957057</v>
+        <v>16.89432359601964</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>17.6899841749661</v>
+        <v>17.70528454860844</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>17.73868218016969</v>
+        <v>17.75174560436318</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>16.41112811690747</v>
+        <v>16.43680621661051</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>16.96698514183058</v>
+        <v>16.93879706302963</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>17.9164255021292</v>
+        <v>17.94135309277763</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>17.54046726645087</v>
+        <v>17.54237257299996</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>16.28984945107308</v>
+        <v>16.30086467490554</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>16.80179643940016</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>18.08939733670307</v>
+        <v>18.08939733670306</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>17.76797718495989</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>17.7193801280411</v>
+        <v>17.71234513345346</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>17.80700309356688</v>
+        <v>17.82807390316871</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>16.85817425665916</v>
+        <v>16.84854131354306</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>17.59797090152184</v>
+        <v>17.61502468963458</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>17.18230068527134</v>
+        <v>17.19264379329434</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>17.46374074712647</v>
+        <v>17.44794782877325</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>16.4328423884866</v>
+        <v>16.42296311851847</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>17.81556233829091</v>
+        <v>17.79878135375925</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>17.52220093768727</v>
+        <v>17.51278323120435</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>17.75373565995217</v>
+        <v>17.72834924928447</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>16.72866817264248</v>
+        <v>16.70351054021197</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>17.82287949299456</v>
+        <v>17.81816098003544</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>18.25532836966129</v>
+        <v>18.23091390781439</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>18.40142552182588</v>
+        <v>18.40150854542035</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>17.55214592082346</v>
+        <v>17.54847211902683</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>18.33087731127458</v>
+        <v>18.28358571909762</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>17.89824449106469</v>
+        <v>17.92696395127114</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>18.0838946137794</v>
+        <v>18.08808868032146</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>17.16898844826032</v>
+        <v>17.19093938895208</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>18.34301332703954</v>
+        <v>18.35919624103973</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>17.97184379666971</v>
+        <v>17.97918615794342</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>18.17724896782172</v>
+        <v>18.16453521103957</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>17.244855523431</v>
+        <v>17.20669813156935</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>18.2627934668883</v>
+        <v>18.25140434379369</v>
       </c>
     </row>
     <row r="22">
@@ -1497,7 +1497,7 @@
         <v>16.67239232815408</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>17.76747707963377</v>
+        <v>17.76747707963376</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>18.37106328304054</v>
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>18.1964216903685</v>
+        <v>18.19411993328005</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>17.92028251449282</v>
+        <v>17.91560149931015</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>16.61724075195488</v>
+        <v>16.59967933096032</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>17.71255777961779</v>
+        <v>17.67694679302325</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>18.09217859498208</v>
+        <v>18.09066917611032</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>17.76947360243984</v>
+        <v>17.78716223294737</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>16.45538375144281</v>
+        <v>16.44325018539447</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>17.54371842555419</v>
+        <v>17.52655030984674</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>18.22945380586585</v>
+        <v>18.20635476625848</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>17.90891924276147</v>
+        <v>17.90845139167247</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>16.584761507345</v>
+        <v>16.5837455088718</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>17.67298476718305</v>
+        <v>17.68311214661726</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>18.59796370306179</v>
+        <v>18.60569530370457</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>18.316731102515</v>
+        <v>18.31058559341086</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>17.02694466888279</v>
+        <v>17.03695091357856</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>18.15752002520065</v>
+        <v>18.11700528262802</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>18.5354333909088</v>
+        <v>18.55095937090265</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>18.12327469291596</v>
+        <v>18.15053216877767</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>16.90897309970274</v>
+        <v>16.89182486886537</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>17.9626689557808</v>
+        <v>17.96908948948481</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>18.52633378144774</v>
+        <v>18.51923931471415</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>18.17824018483782</v>
+        <v>18.18406841439252</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>16.88856956386072</v>
+        <v>16.89547597784808</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>17.97750614777205</v>
+        <v>17.99279310029755</v>
       </c>
     </row>
     <row r="25">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>16.9808119887453</v>
+        <v>16.98341140070425</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>16.71190093444497</v>
+        <v>16.70091945154412</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>16.96203497343427</v>
+        <v>16.96144587858497</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>15.68466138452724</v>
+        <v>15.69226641427681</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>16.54005094849722</v>
+        <v>16.5499045857686</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>16.85183421871744</v>
+        <v>16.81732675312565</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>16.75812377358273</v>
+        <v>16.7500268821796</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>15.3207014983426</v>
+        <v>15.34277296603766</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>16.8098898067933</v>
+        <v>16.80812760699722</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>16.82516837365861</v>
+        <v>16.82259431490013</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>16.91215542087315</v>
+        <v>16.91592447755243</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>15.57383724701452</v>
+        <v>15.57286780997467</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>17.37997413008413</v>
+        <v>17.36710077869408</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>17.06260273830017</v>
+        <v>17.05472020688062</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>17.30122264944525</v>
+        <v>17.31019221763039</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>16.18757809193401</v>
+        <v>16.21747748498451</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>16.97355765660215</v>
+        <v>16.9236136737873</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>17.1735482128674</v>
+        <v>17.16796431835351</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>17.10859067260189</v>
+        <v>17.09763763251855</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>15.76316838910078</v>
+        <v>15.76880286235513</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>17.09360471162566</v>
+        <v>17.08350202685157</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>17.07639885691093</v>
+        <v>17.07588976155722</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>17.15878066965846</v>
+        <v>17.15837979156616</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>15.90562429207066</v>
+        <v>15.89627527192733</v>
       </c>
     </row>
     <row r="28">
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>17.43557613332612</v>
+        <v>17.44244776701244</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>17.71885371849482</v>
+        <v>17.71306898708089</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>17.10258600904802</v>
+        <v>17.11460326327352</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>17.40112877394468</v>
+        <v>17.40119774765895</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>17.07120472054473</v>
+        <v>17.05870821963127</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>17.4521006412773</v>
+        <v>17.46046999541545</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>16.92908062907809</v>
+        <v>16.92649472435913</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>17.29168442293502</v>
+        <v>17.28862291543497</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>17.28366639183418</v>
+        <v>17.28629935885544</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>17.60627291473986</v>
+        <v>17.60796083647228</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>17.03843250634946</v>
+        <v>17.03984675130189</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>17.37449261460893</v>
+        <v>17.37847186163799</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>17.64839470283052</v>
+        <v>17.63986620099217</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>17.89283001513119</v>
+        <v>17.88817111204339</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>17.29141644919858</v>
+        <v>17.29970936872567</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>17.62004796889356</v>
+        <v>17.63261000576738</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>17.28551172476867</v>
+        <v>17.27721258296998</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>17.63836685635143</v>
+        <v>17.6405218883501</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>17.12606710556096</v>
+        <v>17.11363533062856</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>17.46899547497853</v>
+        <v>17.47105540049682</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>17.43559789138353</v>
+        <v>17.44384738849888</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>17.73635572533399</v>
+        <v>17.73991521000577</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>17.18069488161414</v>
+        <v>17.17579341402944</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>17.51667800593346</v>
+        <v>17.51802243580736</v>
       </c>
     </row>
     <row r="31">
